--- a/RuneUI_enhancement/features.xlsx
+++ b/RuneUI_enhancement/features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8F8708-B68D-467B-99DA-59EB99A5BC23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD84A06D-2C3A-407F-857B-358F3D67632E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AB0A980F-27F5-4A6A-83C1-4B267EC9CF36}"/>
   </bookViews>
@@ -273,7 +273,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -453,25 +453,25 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -797,9 +797,7 @@
   </sheetPr>
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
